--- a/AD-codes_final.xlsx
+++ b/AD-codes_final.xlsx
@@ -1010,7 +1010,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="36">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1087,10 +1087,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1132,10 +1128,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="25" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1242,8 +1234,8 @@
   </sheetPr>
   <dimension ref="A1:G190"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A39" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B46" activeCellId="1" sqref="A173:A187 B46"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A95" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B128" activeCellId="0" sqref="B128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="16.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1574,10 +1566,10 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="19" t="n">
+      <c r="A20" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C20" s="17" t="s">
@@ -1586,7 +1578,7 @@
       <c r="D20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F20" s="20" t="s">
+      <c r="F20" s="19" t="s">
         <v>39</v>
       </c>
       <c r="G20" s="1" t="s">
@@ -1617,13 +1609,13 @@
       <c r="B22" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="20" t="s">
         <v>43</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F22" s="22" t="s">
+      <c r="F22" s="21" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1640,7 +1632,7 @@
       <c r="D23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F23" s="23" t="s">
+      <c r="F23" s="22" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1651,13 +1643,13 @@
       <c r="B24" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="20" t="s">
         <v>43</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F24" s="24" t="s">
+      <c r="F24" s="23" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1668,13 +1660,13 @@
       <c r="B25" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="20" t="s">
         <v>43</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F25" s="25" t="s">
+      <c r="F25" s="24" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1682,7 +1674,7 @@
       <c r="A26" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C26" s="18" t="s">
@@ -1699,7 +1691,7 @@
       <c r="A27" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C27" s="15" t="s">
@@ -1708,7 +1700,7 @@
       <c r="D27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="26" t="s">
+      <c r="F27" s="25" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1725,7 +1717,7 @@
       <c r="D28" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F28" s="27" t="s">
+      <c r="F28" s="26" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1733,7 +1725,7 @@
       <c r="A29" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C29" s="18" t="s">
@@ -1742,7 +1734,7 @@
       <c r="D29" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F29" s="28" t="s">
+      <c r="F29" s="27" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1753,7 +1745,7 @@
       <c r="B30" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="C30" s="20" t="s">
         <v>43</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -1764,19 +1756,19 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="19" t="n">
+      <c r="A31" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="22" t="s">
+      <c r="C31" s="21" t="s">
         <v>44</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F31" s="29" t="s">
+      <c r="F31" s="28" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1787,7 +1779,7 @@
       <c r="B32" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="21" t="s">
+      <c r="C32" s="20" t="s">
         <v>43</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -1810,7 +1802,7 @@
       <c r="D33" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F33" s="21" t="s">
+      <c r="F33" s="20" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1818,7 +1810,7 @@
       <c r="A34" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C34" s="9" t="s">
@@ -1827,7 +1819,7 @@
       <c r="D34" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F34" s="30"/>
+      <c r="F34" s="29"/>
     </row>
     <row r="35" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
@@ -1836,7 +1828,7 @@
       <c r="B35" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="22" t="s">
+      <c r="C35" s="21" t="s">
         <v>44</v>
       </c>
       <c r="D35" s="1" t="s">
@@ -1850,7 +1842,7 @@
       <c r="B36" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="21" t="s">
+      <c r="C36" s="20" t="s">
         <v>43</v>
       </c>
       <c r="D36" s="1" t="s">
@@ -1892,7 +1884,7 @@
       <c r="B39" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C39" s="25" t="s">
+      <c r="C39" s="24" t="s">
         <v>50</v>
       </c>
       <c r="D39" s="1" t="s">
@@ -1909,7 +1901,7 @@
       <c r="B40" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C40" s="26" t="s">
+      <c r="C40" s="25" t="s">
         <v>70</v>
       </c>
       <c r="D40" s="1" t="s">
@@ -1963,10 +1955,10 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="19" t="n">
+      <c r="A43" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B43" s="19" t="s">
+      <c r="B43" s="1" t="s">
         <v>76</v>
       </c>
       <c r="C43" s="9" t="s">
@@ -1989,7 +1981,7 @@
       <c r="B44" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C44" s="23" t="s">
+      <c r="C44" s="22" t="s">
         <v>46</v>
       </c>
       <c r="D44" s="1" t="s">
@@ -2069,7 +2061,7 @@
       <c r="B48" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C48" s="21" t="s">
+      <c r="C48" s="20" t="s">
         <v>43</v>
       </c>
       <c r="D48" s="1" t="s">
@@ -2083,10 +2075,10 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="19" t="n">
+      <c r="A49" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B49" s="19" t="s">
+      <c r="B49" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C49" s="9" t="s">
@@ -2103,10 +2095,10 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="19" t="n">
+      <c r="A50" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B50" s="19" t="s">
+      <c r="B50" s="1" t="s">
         <v>89</v>
       </c>
       <c r="C50" s="9" t="s">
@@ -2129,7 +2121,7 @@
       <c r="B51" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C51" s="21" t="s">
+      <c r="C51" s="20" t="s">
         <v>43</v>
       </c>
       <c r="D51" s="1" t="s">
@@ -2149,7 +2141,7 @@
       <c r="B52" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C52" s="25" t="s">
+      <c r="C52" s="24" t="s">
         <v>50</v>
       </c>
       <c r="D52" s="1" t="s">
@@ -2169,7 +2161,7 @@
       <c r="B53" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C53" s="27" t="s">
+      <c r="C53" s="26" t="s">
         <v>55</v>
       </c>
       <c r="D53" s="1" t="s">
@@ -2209,7 +2201,7 @@
       <c r="B55" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C55" s="21" t="s">
+      <c r="C55" s="20" t="s">
         <v>43</v>
       </c>
       <c r="D55" s="1" t="s">
@@ -2269,7 +2261,7 @@
       <c r="B58" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C58" s="23" t="s">
+      <c r="C58" s="22" t="s">
         <v>46</v>
       </c>
       <c r="D58" s="1" t="s">
@@ -2289,7 +2281,7 @@
       <c r="B59" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C59" s="21" t="s">
+      <c r="C59" s="20" t="s">
         <v>43</v>
       </c>
       <c r="D59" s="1" t="s">
@@ -2318,7 +2310,7 @@
       <c r="B61" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C61" s="21" t="s">
+      <c r="C61" s="20" t="s">
         <v>43</v>
       </c>
       <c r="D61" s="1" t="s">
@@ -2416,7 +2408,7 @@
       <c r="B68" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C68" s="21" t="s">
+      <c r="C68" s="20" t="s">
         <v>43</v>
       </c>
       <c r="D68" s="1" t="s">
@@ -2494,10 +2486,10 @@
       </c>
     </row>
     <row r="74" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="31" t="n">
+      <c r="A74" s="30" t="n">
         <v>94</v>
       </c>
-      <c r="B74" s="32" t="s">
+      <c r="B74" s="30" t="s">
         <v>122</v>
       </c>
       <c r="C74" s="17" t="s">
@@ -2542,7 +2534,7 @@
       <c r="B77" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C77" s="21" t="s">
+      <c r="C77" s="20" t="s">
         <v>43</v>
       </c>
       <c r="D77" s="1" t="s">
@@ -2570,7 +2562,7 @@
       <c r="B79" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C79" s="29" t="s">
+      <c r="C79" s="28" t="s">
         <v>15</v>
       </c>
       <c r="D79" s="1" t="s">
@@ -2584,7 +2576,7 @@
       <c r="B80" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C80" s="21" t="s">
+      <c r="C80" s="20" t="s">
         <v>43</v>
       </c>
       <c r="D80" s="1" t="s">
@@ -2598,7 +2590,7 @@
       <c r="B81" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C81" s="26" t="s">
+      <c r="C81" s="25" t="s">
         <v>70</v>
       </c>
       <c r="D81" s="1" t="s">
@@ -2668,7 +2660,7 @@
       <c r="B86" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C86" s="22" t="s">
+      <c r="C86" s="21" t="s">
         <v>44</v>
       </c>
       <c r="D86" s="1" t="s">
@@ -2707,7 +2699,7 @@
       <c r="A89" s="1" t="n">
         <v>148</v>
       </c>
-      <c r="B89" s="33" t="s">
+      <c r="B89" s="31" t="s">
         <v>137</v>
       </c>
       <c r="C89" s="5" t="s">
@@ -2791,7 +2783,7 @@
       <c r="A95" s="1" t="n">
         <v>168</v>
       </c>
-      <c r="B95" s="34" t="s">
+      <c r="B95" s="32" t="s">
         <v>143</v>
       </c>
       <c r="C95" s="15" t="s">
@@ -2864,7 +2856,7 @@
       <c r="B100" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C100" s="21" t="s">
+      <c r="C100" s="20" t="s">
         <v>43</v>
       </c>
       <c r="D100" s="1" t="s">
@@ -2892,7 +2884,7 @@
       <c r="B102" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C102" s="26" t="s">
+      <c r="C102" s="25" t="s">
         <v>70</v>
       </c>
       <c r="D102" s="1" t="s">
@@ -2906,7 +2898,7 @@
       <c r="B103" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C103" s="23" t="s">
+      <c r="C103" s="22" t="s">
         <v>46</v>
       </c>
       <c r="D103" s="1" t="s">
@@ -2934,10 +2926,10 @@
       </c>
     </row>
     <row r="105" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="19" t="n">
+      <c r="A105" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B105" s="19" t="s">
+      <c r="B105" s="1" t="s">
         <v>155</v>
       </c>
       <c r="C105" s="14" t="s">
@@ -2963,10 +2955,10 @@
       </c>
     </row>
     <row r="107" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="19" t="n">
+      <c r="A107" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B107" s="19" t="s">
+      <c r="B107" s="1" t="s">
         <v>157</v>
       </c>
       <c r="C107" s="11" t="s">
@@ -2977,10 +2969,10 @@
       </c>
     </row>
     <row r="108" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="19" t="n">
+      <c r="A108" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B108" s="19" t="s">
+      <c r="B108" s="1" t="s">
         <v>158</v>
       </c>
       <c r="C108" s="9" t="s">
@@ -3039,7 +3031,7 @@
       <c r="B112" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C112" s="20" t="s">
+      <c r="C112" s="19" t="s">
         <v>39</v>
       </c>
       <c r="D112" s="1" t="s">
@@ -3109,7 +3101,7 @@
       <c r="B117" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C117" s="21" t="s">
+      <c r="C117" s="20" t="s">
         <v>43</v>
       </c>
       <c r="D117" s="1" t="s">
@@ -3137,7 +3129,7 @@
       <c r="B119" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C119" s="24" t="s">
+      <c r="C119" s="23" t="s">
         <v>48</v>
       </c>
       <c r="D119" s="1" t="s">
@@ -3145,13 +3137,13 @@
       </c>
     </row>
     <row r="120" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="19" t="n">
+      <c r="A120" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B120" s="19" t="s">
+      <c r="B120" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C120" s="21" t="s">
+      <c r="C120" s="20" t="s">
         <v>43</v>
       </c>
       <c r="D120" s="1" t="s">
@@ -3159,10 +3151,10 @@
       </c>
     </row>
     <row r="121" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="31" t="n">
+      <c r="A121" s="30" t="n">
         <v>87</v>
       </c>
-      <c r="B121" s="31" t="s">
+      <c r="B121" s="30" t="s">
         <v>171</v>
       </c>
       <c r="C121" s="18" t="s">
@@ -3173,10 +3165,10 @@
       </c>
     </row>
     <row r="122" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="32" t="n">
+      <c r="A122" s="30" t="n">
         <v>91</v>
       </c>
-      <c r="B122" s="32" t="s">
+      <c r="B122" s="30" t="s">
         <v>172</v>
       </c>
       <c r="C122" s="18" t="s">
@@ -3232,10 +3224,10 @@
       <c r="A126" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="B126" s="19" t="s">
+      <c r="B126" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C126" s="20" t="s">
+      <c r="C126" s="19" t="s">
         <v>39</v>
       </c>
       <c r="D126" s="1" t="s">
@@ -3243,10 +3235,10 @@
       </c>
     </row>
     <row r="127" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="31" t="n">
+      <c r="A127" s="30" t="n">
         <v>102</v>
       </c>
-      <c r="B127" s="31" t="s">
+      <c r="B127" s="30" t="s">
         <v>177</v>
       </c>
       <c r="C127" s="13" t="s">
@@ -3257,13 +3249,13 @@
       </c>
     </row>
     <row r="128" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="31" t="n">
+      <c r="A128" s="30" t="n">
         <v>105</v>
       </c>
-      <c r="B128" s="31" t="s">
+      <c r="B128" s="30" t="s">
         <v>178</v>
       </c>
-      <c r="C128" s="29" t="s">
+      <c r="C128" s="28" t="s">
         <v>15</v>
       </c>
       <c r="D128" s="1" t="s">
@@ -3316,7 +3308,7 @@
       <c r="A132" s="1" t="n">
         <v>113</v>
       </c>
-      <c r="B132" s="19" t="s">
+      <c r="B132" s="1" t="s">
         <v>182</v>
       </c>
       <c r="C132" s="18" t="s">
@@ -3330,7 +3322,7 @@
       <c r="A133" s="1" t="n">
         <v>114</v>
       </c>
-      <c r="B133" s="19" t="s">
+      <c r="B133" s="1" t="s">
         <v>183</v>
       </c>
       <c r="C133" s="15" t="s">
@@ -3347,7 +3339,7 @@
       <c r="B134" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C134" s="24" t="s">
+      <c r="C134" s="23" t="s">
         <v>48</v>
       </c>
       <c r="D134" s="1" t="s">
@@ -3403,7 +3395,7 @@
       <c r="B138" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C138" s="25" t="s">
+      <c r="C138" s="24" t="s">
         <v>50</v>
       </c>
       <c r="D138" s="1" t="s">
@@ -3414,7 +3406,7 @@
       <c r="A139" s="1" t="n">
         <v>129</v>
       </c>
-      <c r="B139" s="19" t="s">
+      <c r="B139" s="1" t="s">
         <v>189</v>
       </c>
       <c r="C139" s="16" t="s">
@@ -3445,7 +3437,7 @@
       <c r="B141" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C141" s="29" t="s">
+      <c r="C141" s="28" t="s">
         <v>15</v>
       </c>
       <c r="D141" s="1" t="s">
@@ -3459,7 +3451,7 @@
       <c r="B142" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C142" s="21" t="s">
+      <c r="C142" s="20" t="s">
         <v>43</v>
       </c>
       <c r="D142" s="1" t="s">
@@ -3509,13 +3501,13 @@
       </c>
     </row>
     <row r="146" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="31" t="n">
+      <c r="A146" s="30" t="n">
         <v>141</v>
       </c>
-      <c r="B146" s="31" t="s">
+      <c r="B146" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="C146" s="35" t="s">
+      <c r="C146" s="33" t="s">
         <v>35</v>
       </c>
       <c r="D146" s="1" t="s">
@@ -3571,7 +3563,7 @@
       <c r="B150" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C150" s="29" t="s">
+      <c r="C150" s="28" t="s">
         <v>15</v>
       </c>
       <c r="D150" s="1" t="s">
@@ -3585,7 +3577,7 @@
       <c r="B151" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C151" s="26" t="s">
+      <c r="C151" s="25" t="s">
         <v>70</v>
       </c>
       <c r="D151" s="1" t="s">
@@ -3607,13 +3599,13 @@
       </c>
     </row>
     <row r="153" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="31" t="n">
+      <c r="A153" s="30" t="n">
         <v>153</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C153" s="36" t="s">
+      <c r="C153" s="34" t="s">
         <v>24</v>
       </c>
       <c r="D153" s="1" t="s">
@@ -3691,10 +3683,10 @@
       </c>
     </row>
     <row r="159" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="19" t="n">
+      <c r="A159" s="1" t="n">
         <v>160</v>
       </c>
-      <c r="B159" s="19" t="s">
+      <c r="B159" s="1" t="s">
         <v>209</v>
       </c>
       <c r="C159" s="14" t="s">
@@ -3764,7 +3756,7 @@
       <c r="A164" s="1" t="n">
         <v>172</v>
       </c>
-      <c r="B164" s="37" t="s">
+      <c r="B164" s="35" t="s">
         <v>214</v>
       </c>
       <c r="C164" s="9" t="s">
@@ -3789,13 +3781,13 @@
       </c>
     </row>
     <row r="166" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="31" t="n">
+      <c r="A166" s="30" t="n">
         <v>178</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C166" s="25" t="s">
+      <c r="C166" s="24" t="s">
         <v>50</v>
       </c>
       <c r="D166" s="1" t="s">
@@ -3823,7 +3815,7 @@
       <c r="B168" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C168" s="23" t="s">
+      <c r="C168" s="22" t="s">
         <v>46</v>
       </c>
       <c r="D168" s="1" t="s">
@@ -3851,7 +3843,7 @@
       <c r="B170" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C170" s="23" t="s">
+      <c r="C170" s="22" t="s">
         <v>46</v>
       </c>
       <c r="D170" s="1" t="s">
@@ -3865,7 +3857,7 @@
       <c r="B171" s="0" t="s">
         <v>221</v>
       </c>
-      <c r="C171" s="25" t="s">
+      <c r="C171" s="24" t="s">
         <v>50</v>
       </c>
       <c r="D171" s="1" t="s">
@@ -3935,7 +3927,7 @@
       <c r="B176" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C176" s="20" t="s">
+      <c r="C176" s="19" t="s">
         <v>39</v>
       </c>
       <c r="D176" s="1" t="s">
@@ -3977,7 +3969,7 @@
       <c r="B179" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C179" s="20" t="s">
+      <c r="C179" s="19" t="s">
         <v>39</v>
       </c>
       <c r="D179" s="1" t="s">
@@ -4019,7 +4011,7 @@
       <c r="B182" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C182" s="21" t="s">
+      <c r="C182" s="20" t="s">
         <v>43</v>
       </c>
       <c r="D182" s="1" t="s">
@@ -4061,7 +4053,7 @@
       <c r="B185" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C185" s="28" t="s">
+      <c r="C185" s="27" t="s">
         <v>57</v>
       </c>
       <c r="D185" s="1" t="s">
